--- a/ブログ更新・削除_結合テスト.xlsx
+++ b/ブログ更新・削除_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B091608-77DD-400D-9F54-EC9F331D31A6}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE56584B-E2ED-440D-AFD5-FBF0FEEB7B10}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="163">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1213,22 +1213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>どこも変更しなかった場合、「変更はありませんでkした。」の表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.削除されたidでアクセスする</t>
     <rPh sb="2" eb="4">
       <t>サクジョ</t>
@@ -2265,6 +2249,32 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更しなかった場合、「変更はありませんでkした。」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4388,7 +4398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A77DA8-5F4F-404D-8533-BC9C291EE38F}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4400,7 +4410,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4413,7 +4423,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4440,12 +4450,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4486,16 +4496,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="3">
-        <v>46002</v>
+        <v>96</v>
+      </c>
+      <c r="G8" s="4">
+        <v>46028</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -4508,7 +4518,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4535,16 +4545,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="3">
-        <v>46002</v>
+        <v>114</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46028</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -4557,7 +4567,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4584,16 +4594,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="3">
-        <v>46002</v>
+        <v>151</v>
+      </c>
+      <c r="G14" s="4">
+        <v>46028</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -4606,7 +4616,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4622,16 +4632,16 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="3">
-        <v>46002</v>
+        <v>153</v>
+      </c>
+      <c r="G16" s="4">
+        <v>46028</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -4644,7 +4654,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4671,16 +4681,16 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="3">
-        <v>46002</v>
+        <v>150</v>
+      </c>
+      <c r="G19" s="4">
+        <v>46028</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>73</v>
@@ -4707,16 +4717,16 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="3">
-        <v>46002</v>
+      <c r="G21" s="4">
+        <v>46028</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>73</v>
@@ -4729,7 +4739,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4745,16 +4755,16 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="3">
-        <v>46002</v>
+        <v>152</v>
+      </c>
+      <c r="G23" s="4">
+        <v>46028</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -4781,16 +4791,16 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="3">
-        <v>46002</v>
+      <c r="G25" s="4">
+        <v>46028</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>73</v>
@@ -4825,8 +4835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3A01A-A4F6-4174-8DBC-8BCF35A1EEEB}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4837,7 +4847,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4850,7 +4860,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4877,12 +4887,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4923,16 +4933,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="3">
-        <v>46002</v>
+      <c r="G8" s="4">
+        <v>46028</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -4945,7 +4955,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4961,16 +4971,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="3">
-        <v>46002</v>
+        <v>137</v>
+      </c>
+      <c r="G10" s="4">
+        <v>46028</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -4983,7 +4993,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4999,16 +5009,16 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="3">
-        <v>46002</v>
+        <v>138</v>
+      </c>
+      <c r="G12" s="4">
+        <v>46028</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
@@ -5021,7 +5031,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5037,16 +5047,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="3">
-        <v>46002</v>
+        <v>139</v>
+      </c>
+      <c r="G14" s="4">
+        <v>46028</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5059,7 +5069,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5075,16 +5085,16 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="3">
-        <v>46002</v>
+        <v>84</v>
+      </c>
+      <c r="G16" s="4">
+        <v>46028</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -5097,7 +5107,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5113,16 +5123,16 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="3">
-        <v>46002</v>
+      <c r="G18" s="4">
+        <v>46028</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -5157,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D03894-AA72-41DE-B956-B13382C436DD}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5169,7 +5179,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5182,7 +5192,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5209,7 +5219,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5255,16 +5265,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="3">
-        <v>46002</v>
+        <v>105</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46028</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5277,7 +5287,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5293,16 +5303,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="3">
-        <v>46002</v>
+        <v>106</v>
+      </c>
+      <c r="G13" s="4">
+        <v>46028</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -5315,7 +5325,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -5334,13 +5344,13 @@
         <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="3">
-        <v>46002</v>
+      <c r="G15" s="4">
+        <v>46028</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
@@ -5374,8 +5384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5386,7 +5396,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5399,7 +5409,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5426,12 +5436,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5472,16 +5482,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="3">
-        <v>46002</v>
+        <v>116</v>
+      </c>
+      <c r="G8" s="4">
+        <v>46028</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5494,7 +5504,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5521,16 +5531,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="3">
-        <v>46002</v>
+        <v>114</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46028</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5543,7 +5553,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5570,16 +5580,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="3">
-        <v>46002</v>
+        <v>115</v>
+      </c>
+      <c r="G14" s="4">
+        <v>46028</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5592,7 +5602,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5619,16 +5629,16 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="3">
-        <v>46002</v>
+      <c r="G17" s="4">
+        <v>46028</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -5663,8 +5673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE28EAC-04E1-4652-A59F-FBA9EA2DB96E}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5675,7 +5685,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5688,7 +5698,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5715,12 +5725,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5761,16 +5771,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5783,7 +5793,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5796,7 +5806,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5812,16 +5822,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="G11" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5834,7 +5844,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5847,7 +5857,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5863,16 +5873,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5899,16 +5909,16 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G16" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -5921,7 +5931,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5934,7 +5944,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -5947,7 +5957,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5963,16 +5973,16 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G20" s="4">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
